--- a/crea_carpeta/FITXA ECONÒMICA.xlsx
+++ b/crea_carpeta/FITXA ECONÒMICA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\APLICACIONS_EXTRA_DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\MyFlask\crea_carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B390F3-D0E1-4BEB-ACB0-D0783DFAAC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944E12A9-2048-482F-97F7-6D165EF17B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="2205" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FICHA ECONÓMICA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t xml:space="preserve">Vº Bº </t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>CONVOCATORIA / CONVOCATÒRIA (AAPP, FSE, PAA, etc.)</t>
-  </si>
-  <si>
-    <t>FSE</t>
   </si>
   <si>
     <t>ASESORÍA RESPONSABLE / ASSESSORIA RESPONSABLE</t>
@@ -224,14 +221,7 @@
     <t>(firma/signatura):</t>
   </si>
   <si>
-    <t xml:space="preserve">
-FECHA/DATA: 25/06/2025</t>
-  </si>
-  <si>
     <t>OBSERVACIONES/OBSERVACIONS:</t>
-  </si>
-  <si>
-    <t>PONENTE NO GVA.</t>
   </si>
   <si>
     <t>Lista CEFIRE</t>
@@ -372,6 +362,13 @@
   </si>
   <si>
     <t>Solo en caso de tutorización indicar Nº ALUMNOS/AS TUTORIZADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+FECHA/DATA: </t>
+  </si>
+  <si>
+    <t>FSE 2026</t>
   </si>
 </sst>
 </file>
@@ -1283,11 +1280,11 @@
   </sheetPr>
   <dimension ref="C1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="76.5703125" customWidth="1"/>
@@ -1387,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="57"/>
@@ -1399,7 +1396,7 @@
     </row>
     <row r="12" spans="3:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
@@ -1412,7 +1409,7 @@
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="57"/>
@@ -1425,7 +1422,7 @@
     </row>
     <row r="14" spans="3:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="61"/>
       <c r="E14" s="57"/>
@@ -1438,7 +1435,7 @@
     </row>
     <row r="15" spans="3:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
@@ -1451,7 +1448,7 @@
     </row>
     <row r="16" spans="3:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
@@ -1464,7 +1461,7 @@
     </row>
     <row r="17" spans="3:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
@@ -1477,7 +1474,7 @@
     </row>
     <row r="18" spans="3:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="63"/>
@@ -1490,7 +1487,7 @@
     </row>
     <row r="19" spans="3:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="58"/>
@@ -1503,7 +1500,7 @@
     </row>
     <row r="20" spans="3:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
@@ -1523,31 +1520,31 @@
     </row>
     <row r="22" spans="3:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="F22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="G22" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="H22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="I22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="20" t="s">
+      <c r="K22" s="41" t="s">
         <v>23</v>
-      </c>
-      <c r="K22" s="41" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1679,7 +1676,7 @@
     <row r="33" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="3:11" ht="28.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" s="30">
         <f>SUM(K23:K31)</f>
@@ -1693,7 +1690,7 @@
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
       <c r="H37" s="65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I37" s="66"/>
       <c r="J37" s="66"/>
@@ -1705,7 +1702,7 @@
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
       <c r="H38" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J38" s="31"/>
       <c r="K38" s="6"/>
@@ -1771,7 +1768,7 @@
       <c r="G45" s="35"/>
       <c r="H45" s="43"/>
       <c r="I45" s="36" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="J45" s="36"/>
       <c r="K45" s="9"/>
@@ -1779,7 +1776,7 @@
     <row r="46" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
@@ -1791,9 +1788,7 @@
       <c r="K47" s="32"/>
     </row>
     <row r="48" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="60" t="s">
-        <v>30</v>
-      </c>
+      <c r="C48" s="60"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
       <c r="F48" s="60"/>
@@ -1891,128 +1886,128 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" s="49"/>
       <c r="J3" s="42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="49"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -2022,21 +2017,21 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F20" s="49"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>90</v>
@@ -2044,7 +2039,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>300</v>
@@ -2062,7 +2057,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>150</v>
@@ -2070,7 +2065,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -2078,7 +2073,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>0.26</v>
@@ -2086,7 +2081,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>0.106</v>
@@ -2094,7 +2089,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E29">
         <v>65.97</v>
@@ -2107,26 +2102,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f761dc-0ad6-4c4e-b39e-b164820ce0c6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cccfa497-ac3e-4aea-9a3a-5d2483928464" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007BD18D3F7288E745996656793FA4913E" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fdf81845189e92ed4dc5f0dff90d793f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5f761dc-0ad6-4c4e-b39e-b164820ce0c6" xmlns:ns3="cccfa497-ac3e-4aea-9a3a-5d2483928464" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="716ae4fae99d198d83ad0a7a3148e084" ns2:_="" ns3:_="">
     <xsd:import namespace="b5f761dc-0ad6-4c4e-b39e-b164820ce0c6"/>
@@ -2361,26 +2336,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62B6967A-E048-427C-9E79-5EBF0B91CE14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b5f761dc-0ad6-4c4e-b39e-b164820ce0c6"/>
-    <ds:schemaRef ds:uri="cccfa497-ac3e-4aea-9a3a-5d2483928464"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54F72FD4-6C93-474B-9211-4678103B7925}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f761dc-0ad6-4c4e-b39e-b164820ce0c6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cccfa497-ac3e-4aea-9a3a-5d2483928464" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40365F2A-E651-4AE2-9371-EC4507CD08EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2397,4 +2373,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54F72FD4-6C93-474B-9211-4678103B7925}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62B6967A-E048-427C-9E79-5EBF0B91CE14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5f761dc-0ad6-4c4e-b39e-b164820ce0c6"/>
+    <ds:schemaRef ds:uri="cccfa497-ac3e-4aea-9a3a-5d2483928464"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>